--- a/output/StructureDefinition-cls-obo-cmo-mean-corpuscular-volume.xlsx
+++ b/output/StructureDefinition-cls-obo-cmo-mean-corpuscular-volume.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T10:38:26+01:00</t>
+    <t>2023-03-13T12:04:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4051,7 +4051,7 @@
         <v>206</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>207</v>

--- a/output/StructureDefinition-cls-obo-cmo-mean-corpuscular-volume.xlsx
+++ b/output/StructureDefinition-cls-obo-cmo-mean-corpuscular-volume.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T12:04:54+01:00</t>
+    <t>2023-03-14T13:58:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-cmo-mean-corpuscular-volume.xlsx
+++ b/output/StructureDefinition-cls-obo-cmo-mean-corpuscular-volume.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T13:58:26+01:00</t>
+    <t>2023-03-14T20:28:45+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-cmo-mean-corpuscular-volume.xlsx
+++ b/output/StructureDefinition-cls-obo-cmo-mean-corpuscular-volume.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://somewhere.org/fhir/uv/myig/StructureDefinition/cls-obo-cmo-mean-corpuscular-volume</t>
+    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cls-obo-cmo-mean-corpuscular-volume</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T20:28:45+01:00</t>
+    <t>2023-03-15T20:18:50+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-obo-cmo-mean-corpuscular-volume.xlsx
+++ b/output/StructureDefinition-cls-obo-cmo-mean-corpuscular-volume.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/de/myig/StructureDefinition/cls-obo-cmo-mean-corpuscular-volume</t>
+    <t>http://fhir.org/de/StructureDefinition/cls-obo-cmo-mean-corpuscular-volume</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T20:18:50+01:00</t>
+    <t>2023-03-16T15:14:40+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 International - [Some] Work Group</t>
+    <t>HL7 International - CDE Katalog Arbeitsgruppe</t>
   </si>
   <si>
     <t>Contact</t>

--- a/output/StructureDefinition-cls-obo-cmo-mean-corpuscular-volume.xlsx
+++ b/output/StructureDefinition-cls-obo-cmo-mean-corpuscular-volume.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.org/de/StructureDefinition/cls-obo-cmo-mean-corpuscular-volume</t>
+    <t>http://hl7.org/de/StructureDefinition/cls-obo-cmo-mean-corpuscular-volume</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T15:14:40+01:00</t>
+    <t>2023-03-16T17:46:04+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
